--- a/medicine/Mort/Peine_de_mort_au_Nevada/Peine_de_mort_au_Nevada.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Nevada/Peine_de_mort_au_Nevada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Nevada, c'est à Carson City que sont incarcérés et exécutés les condamnés à mort de sexe féminin. Les hommes condamnés demeurent à la prison de la ville d'Ely qui se trouve en plein milieu du désert, ce qui incite les condamnés privés de contact à cesser la procédure judiciaire et à demander leur propre exécution. L'exemple du Nevada avait été cité pour dissuader la Californie de changer l'emplacement de son couloir de la mort actuellement proche de San Francisco[1].
-Sur les 12 personnes qu'a exécuté le Nevada depuis 1976, une seule n'avait pas réclamé son exécution : le triple assassin Richard Allen Moran[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Nevada, c'est à Carson City que sont incarcérés et exécutés les condamnés à mort de sexe féminin. Les hommes condamnés demeurent à la prison de la ville d'Ely qui se trouve en plein milieu du désert, ce qui incite les condamnés privés de contact à cesser la procédure judiciaire et à demander leur propre exécution. L'exemple du Nevada avait été cité pour dissuader la Californie de changer l'emplacement de son couloir de la mort actuellement proche de San Francisco.
+Sur les 12 personnes qu'a exécuté le Nevada depuis 1976, une seule n'avait pas réclamé son exécution : le triple assassin Richard Allen Moran.
 Le 8 février 1924, le Nevada fut le premier État américain à utiliser la chambre à gaz comme mode d'exécution, celle d’un Chinois Gee Jon, condamné à mort pour assassinat. Cette méthode remplaçait la pendaison en usage dans l'état de 1860 à 1921. En 1910, fut également introduit le peloton d'exécution, cependant un seul condamné fut exécuté par cette méthode : Andriza Mircovich en 1913. Jesse Bishop fut le dernier condamné à avoir été exécuté dans la chambre à gaz en 1979. Depuis, celle-ci est utilisée pour les exécutions par l'injection létale qui est le seul mode d'exécution en vigueur au Nevada, utilisé pour la première en 1985.
-La grâce ne peut être accordée que par un comité que le gouverneur préside, celui-ci disposant d'un droit de veto. En 2002, le criminel Thomas Nevius fut gracié à l'unanimité par le bureau alors présidé par le républicain Kenny Guinn en raison de ses troubles mentaux. En 2009, une proposition de moratoire sur les exécutions a été refusée[3].
+La grâce ne peut être accordée que par un comité que le gouverneur préside, celui-ci disposant d'un droit de veto. En 2002, le criminel Thomas Nevius fut gracié à l'unanimité par le bureau alors présidé par le républicain Kenny Guinn en raison de ses troubles mentaux. En 2009, une proposition de moratoire sur les exécutions a été refusée.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Exécutions depuis 1973[4]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Ely, à l'Ely State Prison.
-En janvier 2019, le couloir de la mort du Nevada compte 74 condamnés[5]. Depuis 1973, un condamné a été gracié dans le Nevada[6].
+En janvier 2019, le couloir de la mort du Nevada compte 74 condamnés. Depuis 1973, un condamné a été gracié dans le Nevada.
 </t>
         </is>
       </c>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
